--- a/inputs/data_raw/MP2020/scale-mp-2020-rates.xlsx
+++ b/inputs/data_raw/MP2020/scale-mp-2020-rates.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Retirement Plans\Mortality Improvement Subteam\Scale MP-2020\Final Publications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Proj_CAPlans\model_SJ\inputs\data_raw\MP2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72A6209-D31B-48E3-92C4-B71976B7B6BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5D8220-E892-442C-B844-5B165015CB94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3A4BF312-42B7-442E-B495-EB3650AE57FC}"/>
+    <workbookView xWindow="-28920" yWindow="1845" windowWidth="29040" windowHeight="15840" xr2:uid="{3A4BF312-42B7-442E-B495-EB3650AE57FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Male" sheetId="1" r:id="rId1"/>
@@ -476,20 +476,19 @@
       <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="59" max="65" width="9.109375" style="2" customWidth="1"/>
-    <col min="66" max="66" width="9.33203125" style="2" customWidth="1"/>
-    <col min="67" max="81" width="9.21875" style="2" customWidth="1"/>
-    <col min="82" max="87" width="9.21875" customWidth="1"/>
+    <col min="59" max="65" width="9.140625" style="2" customWidth="1"/>
+    <col min="66" max="81" width="9.28515625" style="2" customWidth="1"/>
+    <col min="82" max="87" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:117" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:117" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:117" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:117" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
         <v>1951</v>
       </c>
@@ -779,7 +778,7 @@
       <c r="DL2"/>
       <c r="DM2"/>
     </row>
-    <row r="3" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1042,7 +1041,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>21</v>
       </c>
@@ -1305,7 +1304,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>22</v>
       </c>
@@ -1568,7 +1567,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>23</v>
       </c>
@@ -1831,7 +1830,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>24</v>
       </c>
@@ -2094,7 +2093,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>25</v>
       </c>
@@ -2357,7 +2356,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>26</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>27</v>
       </c>
@@ -2883,7 +2882,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>28</v>
       </c>
@@ -3146,7 +3145,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>29</v>
       </c>
@@ -3409,7 +3408,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>30</v>
       </c>
@@ -3672,7 +3671,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>31</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>32</v>
       </c>
@@ -4198,7 +4197,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>33</v>
       </c>
@@ -4461,7 +4460,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>34</v>
       </c>
@@ -4724,7 +4723,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>35</v>
       </c>
@@ -4987,7 +4986,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>36</v>
       </c>
@@ -5250,7 +5249,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>37</v>
       </c>
@@ -5513,7 +5512,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>38</v>
       </c>
@@ -5776,7 +5775,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>39</v>
       </c>
@@ -6039,7 +6038,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>40</v>
       </c>
@@ -6302,7 +6301,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>41</v>
       </c>
@@ -6565,7 +6564,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>42</v>
       </c>
@@ -6828,7 +6827,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43</v>
       </c>
@@ -7091,7 +7090,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>44</v>
       </c>
@@ -7354,7 +7353,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45</v>
       </c>
@@ -7617,7 +7616,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>46</v>
       </c>
@@ -7880,7 +7879,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>47</v>
       </c>
@@ -8143,7 +8142,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>48</v>
       </c>
@@ -8406,7 +8405,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>49</v>
       </c>
@@ -8669,7 +8668,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>50</v>
       </c>
@@ -8932,7 +8931,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>51</v>
       </c>
@@ -9195,7 +9194,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>52</v>
       </c>
@@ -9458,7 +9457,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>53</v>
       </c>
@@ -9721,7 +9720,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>54</v>
       </c>
@@ -9984,7 +9983,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>55</v>
       </c>
@@ -10247,7 +10246,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>56</v>
       </c>
@@ -10510,7 +10509,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>57</v>
       </c>
@@ -10773,7 +10772,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>58</v>
       </c>
@@ -11036,7 +11035,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>59</v>
       </c>
@@ -11299,7 +11298,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>60</v>
       </c>
@@ -11562,7 +11561,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>61</v>
       </c>
@@ -11825,7 +11824,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>62</v>
       </c>
@@ -12088,7 +12087,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>63</v>
       </c>
@@ -12351,7 +12350,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>64</v>
       </c>
@@ -12614,7 +12613,7 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>65</v>
       </c>
@@ -12877,7 +12876,7 @@
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>66</v>
       </c>
@@ -13140,7 +13139,7 @@
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>67</v>
       </c>
@@ -13403,7 +13402,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>68</v>
       </c>
@@ -13666,7 +13665,7 @@
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>69</v>
       </c>
@@ -13929,7 +13928,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>70</v>
       </c>
@@ -14192,7 +14191,7 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>71</v>
       </c>
@@ -14455,7 +14454,7 @@
         <v>1.23E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>72</v>
       </c>
@@ -14718,7 +14717,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>73</v>
       </c>
@@ -14981,7 +14980,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>74</v>
       </c>
@@ -15244,7 +15243,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>75</v>
       </c>
@@ -15507,7 +15506,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>76</v>
       </c>
@@ -15770,7 +15769,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>77</v>
       </c>
@@ -16033,7 +16032,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>78</v>
       </c>
@@ -16296,7 +16295,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>79</v>
       </c>
@@ -16559,7 +16558,7 @@
         <v>1.11E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>80</v>
       </c>
@@ -16822,7 +16821,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>81</v>
       </c>
@@ -17085,7 +17084,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>82</v>
       </c>
@@ -17348,7 +17347,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>83</v>
       </c>
@@ -17611,7 +17610,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>84</v>
       </c>
@@ -17874,7 +17873,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>85</v>
       </c>
@@ -18137,7 +18136,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>86</v>
       </c>
@@ -18400,7 +18399,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>87</v>
       </c>
@@ -18663,7 +18662,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>88</v>
       </c>
@@ -18926,7 +18925,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>89</v>
       </c>
@@ -19189,7 +19188,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>90</v>
       </c>
@@ -19452,7 +19451,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>91</v>
       </c>
@@ -19715,7 +19714,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>92</v>
       </c>
@@ -19978,7 +19977,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>93</v>
       </c>
@@ -20241,7 +20240,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>94</v>
       </c>
@@ -20504,7 +20503,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>95</v>
       </c>
@@ -20767,7 +20766,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>96</v>
       </c>
@@ -21030,7 +21029,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>97</v>
       </c>
@@ -21293,7 +21292,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>98</v>
       </c>
@@ -21556,7 +21555,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>99</v>
       </c>
@@ -21819,7 +21818,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>100</v>
       </c>
@@ -22082,7 +22081,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>101</v>
       </c>
@@ -22345,7 +22344,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>102</v>
       </c>
@@ -22608,7 +22607,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>103</v>
       </c>
@@ -22871,7 +22870,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>104</v>
       </c>
@@ -23134,7 +23133,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>105</v>
       </c>
@@ -23397,7 +23396,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>106</v>
       </c>
@@ -23660,7 +23659,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>107</v>
       </c>
@@ -23923,7 +23922,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>108</v>
       </c>
@@ -24186,7 +24185,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>109</v>
       </c>
@@ -24449,7 +24448,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>110</v>
       </c>
@@ -24712,7 +24711,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>111</v>
       </c>
@@ -24975,7 +24974,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>112</v>
       </c>
@@ -25238,7 +25237,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>113</v>
       </c>
@@ -25501,7 +25500,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>114</v>
       </c>
@@ -25764,7 +25763,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>115</v>
       </c>
@@ -26027,7 +26026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>116</v>
       </c>
@@ -26290,7 +26289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>117</v>
       </c>
@@ -26553,7 +26552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>118</v>
       </c>
@@ -26816,7 +26815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>119</v>
       </c>
@@ -27079,7 +27078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>120</v>
       </c>
@@ -27361,20 +27360,19 @@
       <selection pane="bottomRight" activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="59" max="65" width="9.109375" style="2" customWidth="1"/>
-    <col min="66" max="66" width="9.33203125" style="2" customWidth="1"/>
-    <col min="67" max="81" width="9.21875" style="2" customWidth="1"/>
-    <col min="82" max="87" width="9.21875" customWidth="1"/>
+    <col min="59" max="65" width="9.140625" style="2" customWidth="1"/>
+    <col min="66" max="81" width="9.28515625" style="2" customWidth="1"/>
+    <col min="82" max="87" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:117" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:117" s="2" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:117" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:117" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
         <v>1951</v>
       </c>
@@ -27665,7 +27663,7 @@
       <c r="DL2"/>
       <c r="DM2"/>
     </row>
-    <row r="3" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -27928,7 +27926,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>21</v>
       </c>
@@ -28191,7 +28189,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>22</v>
       </c>
@@ -28454,7 +28452,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>23</v>
       </c>
@@ -28717,7 +28715,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>24</v>
       </c>
@@ -28980,7 +28978,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>25</v>
       </c>
@@ -29243,7 +29241,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>26</v>
       </c>
@@ -29506,7 +29504,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>27</v>
       </c>
@@ -29769,7 +29767,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>28</v>
       </c>
@@ -30032,7 +30030,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>29</v>
       </c>
@@ -30295,7 +30293,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>30</v>
       </c>
@@ -30558,7 +30556,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>31</v>
       </c>
@@ -30821,7 +30819,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>32</v>
       </c>
@@ -31084,7 +31082,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:117" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:117" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>33</v>
       </c>
@@ -31347,7 +31345,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>34</v>
       </c>
@@ -31610,7 +31608,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>35</v>
       </c>
@@ -31873,7 +31871,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>36</v>
       </c>
@@ -32136,7 +32134,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>37</v>
       </c>
@@ -32399,7 +32397,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>38</v>
       </c>
@@ -32662,7 +32660,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>39</v>
       </c>
@@ -32925,7 +32923,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>40</v>
       </c>
@@ -33188,7 +33186,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>41</v>
       </c>
@@ -33451,7 +33449,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>42</v>
       </c>
@@ -33714,7 +33712,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>43</v>
       </c>
@@ -33977,7 +33975,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>44</v>
       </c>
@@ -34240,7 +34238,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>45</v>
       </c>
@@ -34503,7 +34501,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>46</v>
       </c>
@@ -34766,7 +34764,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>47</v>
       </c>
@@ -35029,7 +35027,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>48</v>
       </c>
@@ -35292,7 +35290,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>49</v>
       </c>
@@ -35555,7 +35553,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>50</v>
       </c>
@@ -35818,7 +35816,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>51</v>
       </c>
@@ -36081,7 +36079,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>52</v>
       </c>
@@ -36344,7 +36342,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>53</v>
       </c>
@@ -36607,7 +36605,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>54</v>
       </c>
@@ -36870,7 +36868,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>55</v>
       </c>
@@ -37133,7 +37131,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>56</v>
       </c>
@@ -37396,7 +37394,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>57</v>
       </c>
@@ -37659,7 +37657,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>58</v>
       </c>
@@ -37922,7 +37920,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>59</v>
       </c>
@@ -38185,7 +38183,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>60</v>
       </c>
@@ -38448,7 +38446,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>61</v>
       </c>
@@ -38711,7 +38709,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>62</v>
       </c>
@@ -38974,7 +38972,7 @@
         <v>1.35E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>63</v>
       </c>
@@ -39237,7 +39235,7 @@
         <v>1.34E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>64</v>
       </c>
@@ -39500,7 +39498,7 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>65</v>
       </c>
@@ -39763,7 +39761,7 @@
         <v>1.3100000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>66</v>
       </c>
@@ -40026,7 +40024,7 @@
         <v>1.29E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>67</v>
       </c>
@@ -40289,7 +40287,7 @@
         <v>1.2800000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>68</v>
       </c>
@@ -40552,7 +40550,7 @@
         <v>1.2699999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>69</v>
       </c>
@@ -40815,7 +40813,7 @@
         <v>1.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>70</v>
       </c>
@@ -41078,7 +41076,7 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>71</v>
       </c>
@@ -41341,7 +41339,7 @@
         <v>1.23E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>72</v>
       </c>
@@ -41604,7 +41602,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>73</v>
       </c>
@@ -41867,7 +41865,7 @@
         <v>1.2E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>74</v>
       </c>
@@ -42130,7 +42128,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>75</v>
       </c>
@@ -42393,7 +42391,7 @@
         <v>1.17E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>76</v>
       </c>
@@ -42656,7 +42654,7 @@
         <v>1.1599999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>77</v>
       </c>
@@ -42919,7 +42917,7 @@
         <v>1.14E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>78</v>
       </c>
@@ -43182,7 +43180,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>79</v>
       </c>
@@ -43445,7 +43443,7 @@
         <v>1.11E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>80</v>
       </c>
@@ -43708,7 +43706,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>81</v>
       </c>
@@ -43971,7 +43969,7 @@
         <v>1.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>82</v>
       </c>
@@ -44234,7 +44232,7 @@
         <v>1.01E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>83</v>
       </c>
@@ -44497,7 +44495,7 @@
         <v>9.5999999999999992E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>84</v>
       </c>
@@ -44760,7 +44758,7 @@
         <v>9.1000000000000004E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>85</v>
       </c>
@@ -45023,7 +45021,7 @@
         <v>8.6999999999999994E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>86</v>
       </c>
@@ -45286,7 +45284,7 @@
         <v>8.2000000000000007E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>87</v>
       </c>
@@ -45549,7 +45547,7 @@
         <v>7.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>88</v>
       </c>
@@ -45812,7 +45810,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>89</v>
       </c>
@@ -46075,7 +46073,7 @@
         <v>6.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>90</v>
       </c>
@@ -46338,7 +46336,7 @@
         <v>6.3E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>91</v>
       </c>
@@ -46601,7 +46599,7 @@
         <v>5.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>92</v>
       </c>
@@ -46864,7 +46862,7 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>93</v>
       </c>
@@ -47127,7 +47125,7 @@
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>94</v>
       </c>
@@ -47390,7 +47388,7 @@
         <v>4.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>95</v>
       </c>
@@ -47653,7 +47651,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>96</v>
       </c>
@@ -47916,7 +47914,7 @@
         <v>3.8E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>97</v>
       </c>
@@ -48179,7 +48177,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A81" s="4">
         <v>98</v>
       </c>
@@ -48442,7 +48440,7 @@
         <v>3.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>99</v>
       </c>
@@ -48705,7 +48703,7 @@
         <v>3.2000000000000002E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>100</v>
       </c>
@@ -48968,7 +48966,7 @@
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="84" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>101</v>
       </c>
@@ -49231,7 +49229,7 @@
         <v>2.8E-3</v>
       </c>
     </row>
-    <row r="85" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>102</v>
       </c>
@@ -49494,7 +49492,7 @@
         <v>2.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="86" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>103</v>
       </c>
@@ -49757,7 +49755,7 @@
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
-    <row r="87" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>104</v>
       </c>
@@ -50020,7 +50018,7 @@
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="88" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>105</v>
       </c>
@@ -50283,7 +50281,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>106</v>
       </c>
@@ -50546,7 +50544,7 @@
         <v>1.8E-3</v>
       </c>
     </row>
-    <row r="90" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>107</v>
       </c>
@@ -50809,7 +50807,7 @@
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>108</v>
       </c>
@@ -51072,7 +51070,7 @@
         <v>1.4E-3</v>
       </c>
     </row>
-    <row r="92" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>109</v>
       </c>
@@ -51335,7 +51333,7 @@
         <v>1.1999999999999999E-3</v>
       </c>
     </row>
-    <row r="93" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A93" s="4">
         <v>110</v>
       </c>
@@ -51598,7 +51596,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>111</v>
       </c>
@@ -51861,7 +51859,7 @@
         <v>8.0000000000000004E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A95" s="4">
         <v>112</v>
       </c>
@@ -52124,7 +52122,7 @@
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A96" s="4">
         <v>113</v>
       </c>
@@ -52387,7 +52385,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>114</v>
       </c>
@@ -52650,7 +52648,7 @@
         <v>2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>115</v>
       </c>
@@ -52913,7 +52911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>116</v>
       </c>
@@ -53176,7 +53174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>117</v>
       </c>
@@ -53439,7 +53437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>118</v>
       </c>
@@ -53702,7 +53700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>119</v>
       </c>
@@ -53965,7 +53963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>120</v>
       </c>
